--- a/ORG_CROWD.xlsx
+++ b/ORG_CROWD.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7F8F9C-9509-450A-9964-9A8F7DB36B90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BB99B2-BF13-47C5-896C-D7D9C349E0A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="283">
   <si>
     <t>ORG_CROWD_PK</t>
   </si>
@@ -860,6 +860,15 @@
   </si>
   <si>
     <t>ฝูงเครื่องบิน เอฟ 5</t>
+  </si>
+  <si>
+    <t>ORG_CROWD_IDENOLD</t>
+  </si>
+  <si>
+    <t>ORG_CROWD_IDENNEW</t>
+  </si>
+  <si>
+    <t>ORG_CROWD_STATUS</t>
   </si>
 </sst>
 </file>
@@ -1180,20 +1189,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C184"/>
+  <dimension ref="A1:F184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" customWidth="1"/>
-    <col min="2" max="3" width="41.6328125" customWidth="1"/>
-    <col min="4" max="11" width="26.36328125" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="3" width="41.5703125" customWidth="1"/>
+    <col min="4" max="11" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1203,8 +1212,17 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>37000</v>
       </c>
@@ -1215,7 +1233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>37001</v>
       </c>
@@ -1226,7 +1244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>37002</v>
       </c>
@@ -1237,7 +1255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>37003</v>
       </c>
@@ -1248,7 +1266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>37004</v>
       </c>
@@ -1259,7 +1277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>37005</v>
       </c>
@@ -1270,7 +1288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>37006</v>
       </c>
@@ -1281,7 +1299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>37007</v>
       </c>
@@ -1292,7 +1310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>37008</v>
       </c>
@@ -1303,7 +1321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>37009</v>
       </c>
@@ -1314,7 +1332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>37010</v>
       </c>
@@ -1325,7 +1343,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>37011</v>
       </c>
@@ -1336,7 +1354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>37012</v>
       </c>
@@ -1347,7 +1365,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>37013</v>
       </c>
@@ -1358,7 +1376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>37014</v>
       </c>
@@ -1369,7 +1387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>37015</v>
       </c>
@@ -1380,7 +1398,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>37016</v>
       </c>
@@ -1391,7 +1409,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>37017</v>
       </c>
@@ -1402,7 +1420,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>37018</v>
       </c>
@@ -1413,7 +1431,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>37019</v>
       </c>
@@ -1424,7 +1442,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>37020</v>
       </c>
@@ -1435,7 +1453,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>37021</v>
       </c>
@@ -1446,7 +1464,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>37022</v>
       </c>
@@ -1457,7 +1475,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>37023</v>
       </c>
@@ -1468,7 +1486,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>37024</v>
       </c>
@@ -1479,7 +1497,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>37025</v>
       </c>
@@ -1490,7 +1508,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>37026</v>
       </c>
@@ -1501,7 +1519,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>37027</v>
       </c>
@@ -1512,7 +1530,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>37028</v>
       </c>
@@ -1523,7 +1541,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>37029</v>
       </c>
@@ -1534,7 +1552,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>37030</v>
       </c>
@@ -1545,7 +1563,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>37031</v>
       </c>
@@ -1556,7 +1574,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>37032</v>
       </c>
@@ -1567,7 +1585,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>37033</v>
       </c>
@@ -1578,7 +1596,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>37034</v>
       </c>
@@ -1589,7 +1607,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>37035</v>
       </c>
@@ -1600,7 +1618,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37036</v>
       </c>
@@ -1611,7 +1629,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37037</v>
       </c>
@@ -1622,7 +1640,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37038</v>
       </c>
@@ -1633,7 +1651,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>37039</v>
       </c>
@@ -1644,7 +1662,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>37040</v>
       </c>
@@ -1655,7 +1673,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>37041</v>
       </c>
@@ -1666,7 +1684,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>37042</v>
       </c>
@@ -1677,7 +1695,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>37043</v>
       </c>
@@ -1688,7 +1706,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>37044</v>
       </c>
@@ -1699,7 +1717,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>37045</v>
       </c>
@@ -1710,7 +1728,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>37046</v>
       </c>
@@ -1721,7 +1739,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>37047</v>
       </c>
@@ -1732,7 +1750,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>37048</v>
       </c>
@@ -1743,7 +1761,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>37049</v>
       </c>
@@ -1754,7 +1772,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>37050</v>
       </c>
@@ -1765,7 +1783,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>37051</v>
       </c>
@@ -1776,7 +1794,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>37052</v>
       </c>
@@ -1787,7 +1805,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>37053</v>
       </c>
@@ -1798,7 +1816,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>37054</v>
       </c>
@@ -1809,7 +1827,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>37055</v>
       </c>
@@ -1820,7 +1838,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>37056</v>
       </c>
@@ -1831,7 +1849,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>37057</v>
       </c>
@@ -1842,7 +1860,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>37058</v>
       </c>
@@ -1853,7 +1871,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>37059</v>
       </c>
@@ -1864,7 +1882,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>37060</v>
       </c>
@@ -1875,7 +1893,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>37061</v>
       </c>
@@ -1886,7 +1904,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>37062</v>
       </c>
@@ -1897,7 +1915,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>37063</v>
       </c>
@@ -1908,7 +1926,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>37064</v>
       </c>
@@ -1919,7 +1937,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>37065</v>
       </c>
@@ -1930,7 +1948,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>37066</v>
       </c>
@@ -1941,7 +1959,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>37067</v>
       </c>
@@ -1952,7 +1970,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>37068</v>
       </c>
@@ -1963,7 +1981,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>37069</v>
       </c>
@@ -1974,7 +1992,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>37070</v>
       </c>
@@ -1985,7 +2003,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>37071</v>
       </c>
@@ -1996,7 +2014,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>37072</v>
       </c>
@@ -2007,7 +2025,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>37073</v>
       </c>
@@ -2018,7 +2036,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>37074</v>
       </c>
@@ -2029,7 +2047,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>37075</v>
       </c>
@@ -2040,7 +2058,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>37076</v>
       </c>
@@ -2051,7 +2069,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>37077</v>
       </c>
@@ -2062,7 +2080,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>37078</v>
       </c>
@@ -2073,7 +2091,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>37079</v>
       </c>
@@ -2084,7 +2102,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>37080</v>
       </c>
@@ -2095,7 +2113,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>37081</v>
       </c>
@@ -2106,7 +2124,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>37082</v>
       </c>
@@ -2117,7 +2135,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>37083</v>
       </c>
@@ -2128,7 +2146,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>37084</v>
       </c>
@@ -2139,7 +2157,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>37085</v>
       </c>
@@ -2150,7 +2168,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>37086</v>
       </c>
@@ -2161,7 +2179,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>37087</v>
       </c>
@@ -2172,7 +2190,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>37088</v>
       </c>
@@ -2183,7 +2201,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>37089</v>
       </c>
@@ -2194,7 +2212,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>37090</v>
       </c>
@@ -2205,7 +2223,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>37091</v>
       </c>
@@ -2216,7 +2234,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>37092</v>
       </c>
@@ -2227,7 +2245,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>37093</v>
       </c>
@@ -2238,7 +2256,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>37094</v>
       </c>
@@ -2249,7 +2267,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>37095</v>
       </c>
@@ -2260,7 +2278,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>37096</v>
       </c>
@@ -2271,7 +2289,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>37097</v>
       </c>
@@ -2282,7 +2300,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>37098</v>
       </c>
@@ -2293,7 +2311,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>37099</v>
       </c>
@@ -2304,7 +2322,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>37100</v>
       </c>
@@ -2315,7 +2333,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>37101</v>
       </c>
@@ -2326,7 +2344,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>37102</v>
       </c>
@@ -2337,7 +2355,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>37103</v>
       </c>
@@ -2348,7 +2366,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>37104</v>
       </c>
@@ -2359,7 +2377,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>37105</v>
       </c>
@@ -2370,7 +2388,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>37106</v>
       </c>
@@ -2381,7 +2399,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>37107</v>
       </c>
@@ -2392,7 +2410,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>37108</v>
       </c>
@@ -2403,7 +2421,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>37109</v>
       </c>
@@ -2414,7 +2432,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>37110</v>
       </c>
@@ -2425,7 +2443,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>37111</v>
       </c>
@@ -2436,7 +2454,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>37112</v>
       </c>
@@ -2447,7 +2465,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>37113</v>
       </c>
@@ -2458,7 +2476,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>37114</v>
       </c>
@@ -2469,7 +2487,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>37115</v>
       </c>
@@ -2480,7 +2498,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>37116</v>
       </c>
@@ -2491,7 +2509,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>37117</v>
       </c>
@@ -2502,7 +2520,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>37118</v>
       </c>
@@ -2513,7 +2531,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>37119</v>
       </c>
@@ -2524,7 +2542,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>37120</v>
       </c>
@@ -2535,7 +2553,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>37121</v>
       </c>
@@ -2546,7 +2564,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>37122</v>
       </c>
@@ -2557,7 +2575,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>37123</v>
       </c>
@@ -2568,7 +2586,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>37124</v>
       </c>
@@ -2579,7 +2597,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>37125</v>
       </c>
@@ -2590,7 +2608,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>37126</v>
       </c>
@@ -2601,7 +2619,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>37127</v>
       </c>
@@ -2612,7 +2630,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>37128</v>
       </c>
@@ -2623,7 +2641,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>37129</v>
       </c>
@@ -2634,7 +2652,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>37130</v>
       </c>
@@ -2645,7 +2663,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>37131</v>
       </c>
@@ -2656,7 +2674,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>37132</v>
       </c>
@@ -2667,7 +2685,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>37133</v>
       </c>
@@ -2678,7 +2696,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>37134</v>
       </c>
@@ -2689,7 +2707,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>37135</v>
       </c>
@@ -2700,7 +2718,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>37136</v>
       </c>
@@ -2711,7 +2729,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>37137</v>
       </c>
@@ -2722,7 +2740,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>37138</v>
       </c>
@@ -2733,7 +2751,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>37139</v>
       </c>
@@ -2744,7 +2762,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>37140</v>
       </c>
@@ -2755,7 +2773,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>37141</v>
       </c>
@@ -2766,7 +2784,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>37142</v>
       </c>
@@ -2777,7 +2795,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>37143</v>
       </c>
@@ -2788,7 +2806,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>37144</v>
       </c>
@@ -2799,7 +2817,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>37145</v>
       </c>
@@ -2810,7 +2828,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>37146</v>
       </c>
@@ -2821,7 +2839,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>37147</v>
       </c>
@@ -2832,7 +2850,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>37148</v>
       </c>
@@ -2843,7 +2861,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>37149</v>
       </c>
@@ -2854,7 +2872,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>37150</v>
       </c>
@@ -2865,7 +2883,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>37151</v>
       </c>
@@ -2876,7 +2894,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>37152</v>
       </c>
@@ -2887,7 +2905,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>37153</v>
       </c>
@@ -2898,7 +2916,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>37154</v>
       </c>
@@ -2909,7 +2927,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>37155</v>
       </c>
@@ -2920,7 +2938,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>37156</v>
       </c>
@@ -2931,7 +2949,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>37157</v>
       </c>
@@ -2942,7 +2960,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>37158</v>
       </c>
@@ -2953,7 +2971,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>37159</v>
       </c>
@@ -2964,7 +2982,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>37160</v>
       </c>
@@ -2975,7 +2993,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>37161</v>
       </c>
@@ -2986,7 +3004,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>37162</v>
       </c>
@@ -2997,7 +3015,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>37163</v>
       </c>
@@ -3008,7 +3026,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>37164</v>
       </c>
@@ -3019,7 +3037,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>37165</v>
       </c>
@@ -3030,7 +3048,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>37166</v>
       </c>
@@ -3041,7 +3059,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>37167</v>
       </c>
@@ -3052,7 +3070,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>37168</v>
       </c>
@@ -3063,7 +3081,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>37169</v>
       </c>
@@ -3074,7 +3092,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>37170</v>
       </c>
@@ -3085,7 +3103,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>37171</v>
       </c>
@@ -3096,7 +3114,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>37172</v>
       </c>
@@ -3107,7 +3125,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>37173</v>
       </c>
@@ -3118,7 +3136,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>37174</v>
       </c>
@@ -3129,7 +3147,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>37175</v>
       </c>
@@ -3140,7 +3158,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>37176</v>
       </c>
@@ -3151,7 +3169,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>37177</v>
       </c>
@@ -3162,7 +3180,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>37178</v>
       </c>
@@ -3173,7 +3191,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>37179</v>
       </c>
@@ -3184,7 +3202,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>37180</v>
       </c>
@@ -3195,7 +3213,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>37181</v>
       </c>
@@ -3206,7 +3224,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>37182</v>
       </c>
